--- a/biology/Botanique/Beauté_de_Versailles/Beauté_de_Versailles.xlsx
+++ b/biology/Botanique/Beauté_de_Versailles/Beauté_de_Versailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beaut%C3%A9_de_Versailles</t>
+          <t>Beauté_de_Versailles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Beauté de Versailles’ est un cultivar de rosier obtenu en 1846[1],[2] par le rosiériste français Souchet[3],[4]. Cette rose ancienne appartient à la classe des rosiers Bourbon[5]. Elle était à la mode dans les années 1850/1870, mais a été détrônée dans les années 1880 par la vogue des hybrides de thé, plus résistants.
+‘Beauté de Versailles’ est un cultivar de rosier obtenu en 1846, par le rosiériste français Souchet,. Cette rose ancienne appartient à la classe des rosiers Bourbon. Elle était à la mode dans les années 1850/1870, mais a été détrônée dans les années 1880 par la vogue des hybrides de thé, plus résistants.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beaut%C3%A9_de_Versailles</t>
+          <t>Beauté_de_Versailles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son buisson pouvant atteindre 120 cm présente un feuillage vert clair très vernissé et des fleurs moyennes d'un rouge carmin ou cerise, devenant plus pâles au fur et à mesure et très parfumées. Elles sont pleines (26-40 pétales) en forme de coupe et bien rondes, tandis que les boutons sont pointus.
-Cette variété résiste à des températures hivernales de l'ordre de -20° C[3].
-Elle ressemble à la variété 'Georges Cuvier'[3] avec qui elle est souvent confondue[6]. On peut l'admirer dans certaines roseraies, comme l'Europa-Rosarium de Sangerhausen en Allemagne.
+Cette variété résiste à des températures hivernales de l'ordre de -20° C.
+Elle ressemble à la variété 'Georges Cuvier' avec qui elle est souvent confondue. On peut l'admirer dans certaines roseraies, comme l'Europa-Rosarium de Sangerhausen en Allemagne.
 </t>
         </is>
       </c>
